--- a/set1.xlsx
+++ b/set1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\question-randomizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB975A-A762-473A-9DB1-2C53DD7B4BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4109F-7168-49C5-9ABA-7CB41AFFA9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{151ED729-B3FD-407F-BB4E-CFF9F0D4249D}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>в</t>
   </si>
@@ -156,34 +178,6 @@
 г. мастната тъкан</t>
   </si>
   <si>
-    <t>Дължина на аксона при човек може да достигне:
-а.най-много до 50 см
-6. най-много до 20 см
-в. най-много до 5 см
-г. повече от 1 м</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Миелиновата обвивка се образува от:
-а. аксоните
-6. глиалните клетки
-в. дендритите
-г. съединителната тъкан</t>
-  </si>
-  <si>
-    <t>Като резерв на енергия служи:
-а. кръвта
-6. мастната тъкан
-в. мускулната тъкан
-г. хрущялната тъкан</t>
-  </si>
-  <si>
-    <t>В кои от изброените тъкани има най-голямо количество междуклетъчно вещество?
-а. съединителна
-6. епителна
-в. мускулна
-г. Нервна</t>
-  </si>
-  <si>
     <t>За невроните не е характерно да имат:
 а. две и повече ядра
 6. един аксон
@@ -210,6 +204,9 @@
 6. епителна тъкан
 в. нервна тъкан
 г. съединителна тъкан</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -266,6 +263,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,7 +648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF826983-61CE-48E9-B309-54491AEA4E6A}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -625,7 +688,7 @@
     </row>
     <row r="5" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -649,7 +712,7 @@
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -689,7 +752,7 @@
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -737,43 +800,28 @@
     </row>
     <row r="19" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
